--- a/Other/Documentação - Requisitos.xlsx
+++ b/Other/Documentação - Requisitos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oseia\OneDrive\Documentos\les_fatec\ecommerce\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ecommerce\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CB4520-9AA5-4930-B28F-C1BCAC82F9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBBFD1A6-0289-49BD-845D-6D6126734666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>REQUISITOS FUNCIONAIS</t>
   </si>
@@ -245,8 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -374,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,6 +468,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B19924D-4EDB-4E48-9073-3AAA4BDF3ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +885,9 @@
       <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -873,10 +905,10 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="15"/>
@@ -1159,6 +1191,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1169,6 +1218,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="740ff353-e513-4170-ac09-b9c7afe2ca77" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDCAE29EB80CB741B243391635A1BBE6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="91f133fa7f5f3909c395bebef2741e6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="740ff353-e513-4170-ac09-b9c7afe2ca77" xmlns:ns4="6a5d7ab4-687c-4fde-8015-8114fb93ae97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7594da62f0de8e62c1f7e0f9872e4d2" ns3:_="" ns4:_="">
     <xsd:import namespace="740ff353-e513-4170-ac09-b9c7afe2ca77"/>
@@ -1409,14 +1466,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="740ff353-e513-4170-ac09-b9c7afe2ca77" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A36F9B32-6AAA-4D49-9D4C-13E9382A8DF1}">
   <ds:schemaRefs>
@@ -1426,6 +1475,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59085D69-F1AF-423E-9FDF-6EE2DF659D81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6a5d7ab4-687c-4fde-8015-8114fb93ae97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="740ff353-e513-4170-ac09-b9c7afe2ca77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC73B25-635C-481F-9E2D-1E7FCEC1A535}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1442,21 +1508,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59085D69-F1AF-423E-9FDF-6EE2DF659D81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6a5d7ab4-687c-4fde-8015-8114fb93ae97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="740ff353-e513-4170-ac09-b9c7afe2ca77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>